--- a/biology/Zoologie/Amphioxiformes/Amphioxiformes.xlsx
+++ b/biology/Zoologie/Amphioxiformes/Amphioxiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les amphioxiformes forment un ordre d'animaux de la classe des Céphalocordés [1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amphioxiformes forment un ordre d'animaux de la classe des Céphalocordés ,.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (14 octobre 2014)[3], cet ordre ne contiendrait qu'une seule famille actuellement, la famille des Branchiostomatidae, comprenant deux genres pour ITIS et quatre pour World Register of Marine Species :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (14 octobre 2014), cet ordre ne contiendrait qu'une seule famille actuellement, la famille des Branchiostomatidae, comprenant deux genres pour ITIS et quatre pour World Register of Marine Species :
 famille Branchiostomatidae Bonaparte, 1846
 genre Amphioxides Gill, 1895 (non reconnu par ITIS)
 genre Asymmetron Andrews, 1893 (non reconnu par ITIS)
 genre Branchiostoma Costa, 1834
 genre Epigonichthys Peters, 1876
 genre Heteropleuron Kirkaldy, 1895 (non reconnu par ITIS)
-Selon certains auteurs, la famille des Branchiostomatidae ne comprendrait que le genre Branchiostoma, et le genre Epigonichthys appartiendrait à la famille des Epigonichthyidae[4].
+Selon certains auteurs, la famille des Branchiostomatidae ne comprendrait que le genre Branchiostoma, et le genre Epigonichthys appartiendrait à la famille des Epigonichthyidae.
 </t>
         </is>
       </c>
